--- a/Table.xlsx
+++ b/Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Git\basic_spring\task3-calender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9DC069-3A8A-4EC2-8BAD-177D7AC92751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B2C5B8-F1CE-423C-B120-9B9EA212A46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28155" yWindow="1995" windowWidth="24420" windowHeight="18015" xr2:uid="{3EE1B9AF-DBE4-47FA-9DFA-DA3D74C83696}"/>
   </bookViews>
